--- a/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21075" windowHeight="11520"/>
+    <workbookView windowWidth="14790" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="ItemsSynthesis" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -22,6 +22,9 @@
     <t>items</t>
   </si>
   <si>
+    <t>type_synthesis</t>
+  </si>
+  <si>
     <t>remark</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
     <t>资源id和数量 用|分割</t>
   </si>
   <si>
+    <t>合成类型(用,分割) 0自身  1基础合成台</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -53,6 +59,9 @@
   </si>
   <si>
     <t>Skeleton</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -75,12 +84,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -88,8 +113,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,14 +130,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,6 +166,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -136,13 +185,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,30 +198,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -187,32 +213,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,19 +236,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,31 +332,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,127 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,6 +427,47 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -445,6 +495,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -459,65 +527,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -526,10 +535,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,138 +547,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1020,21 +1032,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="41.875" customWidth="1"/>
-    <col min="3" max="3" width="33.5" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="41.875" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1050,50 +1062,62 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>items</t>
+    <t>results</t>
+  </si>
+  <si>
+    <t>materials</t>
   </si>
   <si>
     <t>type_synthesis</t>
@@ -43,10 +46,18 @@
     <t>序号</t>
   </si>
   <si>
-    <t>资源id和数量 用|分割</t>
-  </si>
-  <si>
-    <t>合成类型(用,分割) 0自身  1基础合成台</t>
+    <t>合成结果
+:分隔道具数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">资源id和数量 
+&amp;分隔不同材料
+:分隔道具数量
+|分隔可替换的材料
+</t>
+  </si>
+  <si>
+    <t>合成类型(用|分割) 0自身  1基础合成台</t>
   </si>
   <si>
     <t>备注</t>
@@ -58,10 +69,43 @@
     <t>名字-英文</t>
   </si>
   <si>
-    <t>Skeleton</t>
+    <t>101001:1</t>
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>木锄</t>
+  </si>
+  <si>
+    <t>101001:2</t>
+  </si>
+  <si>
+    <t>木镐</t>
+  </si>
+  <si>
+    <t>101001:3</t>
+  </si>
+  <si>
+    <t>木斧</t>
+  </si>
+  <si>
+    <t>101001:4</t>
+  </si>
+  <si>
+    <t>木铲</t>
+  </si>
+  <si>
+    <t>101001:5</t>
+  </si>
+  <si>
+    <t>木剑</t>
+  </si>
+  <si>
+    <t>木刀</t>
+  </si>
+  <si>
+    <t>木弓</t>
   </si>
 </sst>
 </file>
@@ -69,8 +113,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -90,16 +134,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,17 +158,77 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,23 +240,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,68 +265,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,187 +280,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,17 +474,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,56 +551,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,151 +579,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1032,21 +1079,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="41.875" customWidth="1"/>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="29.875" customWidth="1"/>
+    <col min="4" max="4" width="41.875" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1065,59 +1114,173 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" ht="48" customHeight="1" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
+      <c r="B4">
+        <v>2100001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2200001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2300001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2400001</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>3100001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>3200001</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3300001</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14790" windowHeight="8310"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="ItemsSynthesis" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -69,37 +69,40 @@
     <t>名字-英文</t>
   </si>
   <si>
+    <t>101001:1&amp;101001:1&amp;101001:1&amp;101001:1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>木锄</t>
+  </si>
+  <si>
+    <t>101001:2&amp;101001:2</t>
+  </si>
+  <si>
+    <t>木镐</t>
+  </si>
+  <si>
+    <t>101001:3</t>
+  </si>
+  <si>
+    <t>木斧</t>
+  </si>
+  <si>
+    <t>101001:4</t>
+  </si>
+  <si>
+    <t>木铲</t>
+  </si>
+  <si>
+    <t>101001:5</t>
+  </si>
+  <si>
+    <t>木剑</t>
+  </si>
+  <si>
     <t>101001:1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>木锄</t>
-  </si>
-  <si>
-    <t>101001:2</t>
-  </si>
-  <si>
-    <t>木镐</t>
-  </si>
-  <si>
-    <t>101001:3</t>
-  </si>
-  <si>
-    <t>木斧</t>
-  </si>
-  <si>
-    <t>101001:4</t>
-  </si>
-  <si>
-    <t>木铲</t>
-  </si>
-  <si>
-    <t>101001:5</t>
-  </si>
-  <si>
-    <t>木剑</t>
   </si>
   <si>
     <t>木刀</t>
@@ -113,8 +116,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -127,6 +130,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -135,30 +146,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,44 +191,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,6 +211,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -256,6 +251,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -266,6 +262,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,19 +283,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,163 +457,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,15 +551,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -571,6 +565,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -579,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,133 +594,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1082,13 +1085,13 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="28.875" customWidth="1"/>
-    <col min="3" max="3" width="29.875" customWidth="1"/>
+    <col min="3" max="3" width="70.75" customWidth="1"/>
     <col min="4" max="4" width="41.875" customWidth="1"/>
     <col min="5" max="5" width="33.5" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
@@ -1257,13 +1260,13 @@
         <v>3200001</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1274,13 +1277,13 @@
         <v>3300001</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="14790" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="ItemsSynthesis" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
     <t>名字-英文</t>
   </si>
   <si>
-    <t>101001:1&amp;101001:1&amp;101001:1&amp;101001:1</t>
+    <t>101001|102001:1&amp;101001:1&amp;101001:1&amp;101001:1</t>
   </si>
   <si>
     <t>0</t>
@@ -116,9 +116,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -132,67 +132,75 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,38 +245,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,19 +283,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,163 +451,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,30 +474,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -512,41 +488,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,6 +515,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -582,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,34 +594,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,94 +630,97 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14790" windowHeight="8310"/>
+    <workbookView windowWidth="21195" windowHeight="10965"/>
   </bookViews>
   <sheets>
     <sheet name="ItemsSynthesis" sheetId="1" r:id="rId1"/>
@@ -46,14 +46,10 @@
     <t>序号</t>
   </si>
   <si>
-    <t>合成结果
-:分隔道具数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">资源id和数量 
-&amp;分隔不同材料
-:分隔道具数量
-|分隔可替换的材料
+    <t>合成结果:分隔道具数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">资源（&amp;分隔不同材料） （:分隔道具数量） （|分隔可替换的材料）
 </t>
   </si>
   <si>
@@ -69,40 +65,40 @@
     <t>名字-英文</t>
   </si>
   <si>
-    <t>101001|102001:1&amp;101001:1&amp;101001:1&amp;101001:1</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>木棍</t>
+  </si>
+  <si>
+    <t>900001:4&amp;1000001:4</t>
+  </si>
+  <si>
+    <t>简易制作台</t>
+  </si>
+  <si>
+    <t>1000002:10</t>
+  </si>
+  <si>
+    <t>树叶-男</t>
+  </si>
+  <si>
+    <t>树叶-女</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>木锄</t>
   </si>
   <si>
-    <t>101001:2&amp;101001:2</t>
-  </si>
-  <si>
     <t>木镐</t>
   </si>
   <si>
-    <t>101001:3</t>
-  </si>
-  <si>
     <t>木斧</t>
   </si>
   <si>
-    <t>101001:4</t>
-  </si>
-  <si>
     <t>木铲</t>
   </si>
   <si>
-    <t>101001:5</t>
-  </si>
-  <si>
     <t>木剑</t>
-  </si>
-  <si>
-    <t>101001:1</t>
   </si>
   <si>
     <t>木刀</t>
@@ -116,10 +112,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -130,82 +126,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,9 +209,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,6 +241,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -243,32 +256,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,19 +279,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,163 +423,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,16 +474,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,23 +521,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,30 +553,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -574,6 +561,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -582,10 +578,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,133 +590,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1082,15 +1078,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="2" max="2" width="33.75" customWidth="1"/>
     <col min="3" max="3" width="70.75" customWidth="1"/>
     <col min="4" max="4" width="41.875" customWidth="1"/>
     <col min="5" max="5" width="33.5" customWidth="1"/>
@@ -1144,7 +1140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="48" customHeight="1" spans="1:7">
+    <row r="3" ht="131" customHeight="1" spans="1:7">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1167,122 +1163,190 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="42" customHeight="1" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>2100001</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="1">
+        <v>900001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1000001</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="24" customHeight="1" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>2200001</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="1">
+        <v>106101</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="1:5">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1200001</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>2300001</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="7" ht="24" customHeight="1" spans="1:5">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1200002</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>2400001</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>5</v>
+        <v>10001</v>
       </c>
       <c r="B8">
-        <v>3100001</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
+        <v>2100001</v>
+      </c>
+      <c r="C8">
+        <v>900001</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>6</v>
+        <v>10002</v>
       </c>
       <c r="B9">
-        <v>3200001</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
+        <v>2200001</v>
+      </c>
+      <c r="C9">
+        <v>900001</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>7</v>
+        <v>10003</v>
       </c>
       <c r="B10">
+        <v>2300001</v>
+      </c>
+      <c r="C10">
+        <v>900001</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10004</v>
+      </c>
+      <c r="B11">
+        <v>2400001</v>
+      </c>
+      <c r="C11">
+        <v>900001</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>10005</v>
+      </c>
+      <c r="B12">
+        <v>3100001</v>
+      </c>
+      <c r="C12">
+        <v>900001</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>10006</v>
+      </c>
+      <c r="B13">
+        <v>3200001</v>
+      </c>
+      <c r="C13">
+        <v>900001</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>10007</v>
+      </c>
+      <c r="B14">
         <v>3300001</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C14">
+        <v>900001</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
         <v>29</v>
       </c>
     </row>

--- a/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21195" windowHeight="10965"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="ItemsSynthesis" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>树叶-女</t>
+  </si>
+  <si>
+    <t>900001:2&amp;1000001:2&amp;1000002:2</t>
   </si>
   <si>
     <t>1</t>
@@ -112,10 +115,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -127,29 +130,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,45 +175,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,24 +196,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,14 +213,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -256,15 +220,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,187 +282,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,6 +487,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,32 +557,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,15 +573,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -578,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,133 +593,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,7 +1084,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1238,14 +1241,14 @@
       <c r="B8">
         <v>2100001</v>
       </c>
-      <c r="C8">
-        <v>900001</v>
+      <c r="C8" t="s">
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1255,14 +1258,14 @@
       <c r="B9">
         <v>2200001</v>
       </c>
-      <c r="C9">
-        <v>900001</v>
+      <c r="C9" t="s">
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1272,14 +1275,14 @@
       <c r="B10">
         <v>2300001</v>
       </c>
-      <c r="C10">
-        <v>900001</v>
+      <c r="C10" t="s">
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1289,14 +1292,14 @@
       <c r="B11">
         <v>2400001</v>
       </c>
-      <c r="C11">
-        <v>900001</v>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1306,14 +1309,14 @@
       <c r="B12">
         <v>3100001</v>
       </c>
-      <c r="C12">
-        <v>900001</v>
+      <c r="C12" t="s">
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1323,14 +1326,14 @@
       <c r="B13">
         <v>3200001</v>
       </c>
-      <c r="C13">
-        <v>900001</v>
+      <c r="C13" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1340,14 +1343,14 @@
       <c r="B14">
         <v>3300001</v>
       </c>
-      <c r="C14">
-        <v>900001</v>
+      <c r="C14" t="s">
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowWidth="15735" windowHeight="10470"/>
   </bookViews>
   <sheets>
     <sheet name="ItemsSynthesis" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -108,6 +108,48 @@
   </si>
   <si>
     <t>木弓</t>
+  </si>
+  <si>
+    <t>108051:2</t>
+  </si>
+  <si>
+    <t>橡树地板</t>
+  </si>
+  <si>
+    <t>108052:2</t>
+  </si>
+  <si>
+    <t>银树地板</t>
+  </si>
+  <si>
+    <t>108053:2</t>
+  </si>
+  <si>
+    <t>世界树地板</t>
+  </si>
+  <si>
+    <t>108054:2</t>
+  </si>
+  <si>
+    <t>樱花地板</t>
+  </si>
+  <si>
+    <t>108055:2</t>
+  </si>
+  <si>
+    <t>棕榈地板</t>
+  </si>
+  <si>
+    <t>108056:2</t>
+  </si>
+  <si>
+    <t>桦树地板</t>
+  </si>
+  <si>
+    <t>108057:2</t>
+  </si>
+  <si>
+    <t>胡桃树地板</t>
   </si>
 </sst>
 </file>
@@ -1081,10 +1123,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1353,6 +1395,125 @@
         <v>30</v>
       </c>
     </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>20001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>101001</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>20002</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>101002</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>20003</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>101003</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>20004</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>101004</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>20005</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19">
+        <v>101005</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>20006</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20">
+        <v>101006</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20007</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>101007</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15735" windowHeight="10470"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="ItemsSynthesis" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>木弓</t>
+  </si>
+  <si>
+    <t>1000001:4</t>
+  </si>
+  <si>
+    <t>101001|101002|101003|101004|101005|101006|101007</t>
+  </si>
+  <si>
+    <t>木材</t>
   </si>
   <si>
     <t>108051:2</t>
@@ -1123,10 +1132,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1399,119 +1408,136 @@
       <c r="A15">
         <v>20001</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15">
-        <v>101001</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>23</v>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20002</v>
+        <v>30001</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16">
-        <v>101002</v>
+        <v>101001</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20003</v>
+        <v>30002</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17">
-        <v>101003</v>
+        <v>101002</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20004</v>
+        <v>30003</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18">
-        <v>101004</v>
+        <v>101003</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20005</v>
+        <v>30004</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19">
-        <v>101005</v>
+        <v>101004</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20006</v>
+        <v>30005</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20">
-        <v>101006</v>
+        <v>101005</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20007</v>
+        <v>30006</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21">
-        <v>101007</v>
+        <v>101006</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" ht="21" customHeight="1" spans="1:5">
+      <c r="A22">
+        <v>30007</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22">
+        <v>101007</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>胡桃树地板</t>
+  </si>
+  <si>
+    <t>910101|910102|910103|910104|910105|910106|910107&amp;910101|910102|910103|910104|910105|910106|910107&amp;910101|910102|910103|910104|910105|910106|910107</t>
+  </si>
+  <si>
+    <t>混沌元素粉末</t>
   </si>
 </sst>
 </file>
@@ -1132,16 +1138,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="33.75" customWidth="1"/>
-    <col min="3" max="3" width="70.75" customWidth="1"/>
+    <col min="2" max="2" width="144.875" customWidth="1"/>
+    <col min="3" max="3" width="145.75" customWidth="1"/>
     <col min="4" max="4" width="41.875" customWidth="1"/>
     <col min="5" max="5" width="33.5" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
@@ -1540,6 +1546,23 @@
         <v>47</v>
       </c>
     </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>90001</v>
+      </c>
+      <c r="B23">
+        <v>910109</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
@@ -164,7 +164,7 @@
     <t>910101|910102|910103|910104|910105|910106|910107&amp;910101|910102|910103|910104|910105|910106|910107&amp;910101|910102|910103|910104|910105|910106|910107</t>
   </si>
   <si>
-    <t>混沌元素粉末</t>
+    <t>神秘元素粉末</t>
   </si>
 </sst>
 </file>
@@ -1140,8 +1140,8 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>magic_pay</t>
+  </si>
+  <si>
     <t>results</t>
   </si>
   <si>
@@ -40,10 +43,16 @@
     <t>long</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
     <t>序号</t>
+  </si>
+  <si>
+    <t>魔力消耗</t>
   </si>
   <si>
     <t>合成结果:分隔道具数量</t>
@@ -53,7 +62,7 @@
 </t>
   </si>
   <si>
-    <t>合成类型(用|分割) 0自身  1基础合成台</t>
+    <t>合成类型(用|分割) 0自身  1基础制造台 11神秘制造台</t>
   </si>
   <si>
     <t>备注</t>
@@ -65,6 +74,9 @@
     <t>名字-英文</t>
   </si>
   <si>
+    <t>0|1</t>
+  </si>
+  <si>
     <t>木棍</t>
   </si>
   <si>
@@ -165,6 +177,18 @@
   </si>
   <si>
     <t>神秘元素粉末</t>
+  </si>
+  <si>
+    <t>910109&amp;100005:4</t>
+  </si>
+  <si>
+    <t>奥术石材</t>
+  </si>
+  <si>
+    <t>108301:4</t>
+  </si>
+  <si>
+    <t>奥术石砖</t>
   </si>
 </sst>
 </file>
@@ -1138,23 +1162,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="144.875" customWidth="1"/>
-    <col min="3" max="3" width="145.75" customWidth="1"/>
-    <col min="4" max="4" width="41.875" customWidth="1"/>
-    <col min="5" max="5" width="33.5" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="2" max="3" width="32.5" customWidth="1"/>
+    <col min="4" max="4" width="142" customWidth="1"/>
+    <col min="5" max="5" width="41.875" customWidth="1"/>
+    <col min="6" max="6" width="33.5" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1176,391 +1200,500 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" ht="131" customHeight="1" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="131" customHeight="1" spans="1:8">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" ht="42" customHeight="1" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="42" customHeight="1" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
         <v>900001</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>1000001</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="24" customHeight="1" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="24" customHeight="1" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
         <v>106101</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" ht="24" customHeight="1" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="1:6">
       <c r="A6">
         <v>11</v>
       </c>
       <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
         <v>1200001</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="1:5">
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="1:6">
       <c r="A7">
         <v>12</v>
       </c>
       <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
         <v>1200002</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>10001</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>2100001</v>
       </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>10002</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>2200001</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>10003</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>2300001</v>
       </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10004</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>2400001</v>
       </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>10005</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>3100001</v>
       </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>10006</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>3200001</v>
       </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>10007</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>3300001</v>
       </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>20001</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
+      <c r="B15" s="1">
+        <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>30001</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16">
         <v>101001</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>30002</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17">
         <v>101002</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>30003</v>
       </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18">
         <v>101003</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>30004</v>
       </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19">
         <v>101004</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>30005</v>
       </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20">
         <v>101005</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>30006</v>
       </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21">
         <v>101006</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" ht="21" customHeight="1" spans="1:5">
+      <c r="E21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" ht="21" customHeight="1" spans="1:6">
       <c r="A22">
         <v>30007</v>
       </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22">
         <v>101007</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>90001</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23">
         <v>910109</v>
       </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23">
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23">
         <v>1</v>
       </c>
-      <c r="E23" t="s">
-        <v>49</v>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>1100001</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>108301</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>1100002</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>108302</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowWidth="20625" windowHeight="17070"/>
   </bookViews>
   <sheets>
     <sheet name="ItemsSynthesis" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -80,12 +80,99 @@
     <t>木棍</t>
   </si>
   <si>
+    <t>1000001:4</t>
+  </si>
+  <si>
+    <t>101001|101002|101003|101004|101005|101006|101007</t>
+  </si>
+  <si>
+    <t>木材</t>
+  </si>
+  <si>
+    <t>900101:4</t>
+  </si>
+  <si>
+    <t>108151:4</t>
+  </si>
+  <si>
+    <t>玻璃瓶</t>
+  </si>
+  <si>
+    <t>900001:2&amp;1000001:2&amp;1000002:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>木锄</t>
+  </si>
+  <si>
+    <t>木镐</t>
+  </si>
+  <si>
+    <t>木斧</t>
+  </si>
+  <si>
+    <t>木铲</t>
+  </si>
+  <si>
+    <t>木剑</t>
+  </si>
+  <si>
+    <t>木刀</t>
+  </si>
+  <si>
+    <t>木弓</t>
+  </si>
+  <si>
     <t>900001:4&amp;1000001:4</t>
   </si>
   <si>
     <t>简易制作台</t>
   </si>
   <si>
+    <t>108051:2</t>
+  </si>
+  <si>
+    <t>橡树地板</t>
+  </si>
+  <si>
+    <t>108052:2</t>
+  </si>
+  <si>
+    <t>银树地板</t>
+  </si>
+  <si>
+    <t>108053:2</t>
+  </si>
+  <si>
+    <t>世界树地板</t>
+  </si>
+  <si>
+    <t>108054:2</t>
+  </si>
+  <si>
+    <t>樱花地板</t>
+  </si>
+  <si>
+    <t>108055:2</t>
+  </si>
+  <si>
+    <t>棕榈地板</t>
+  </si>
+  <si>
+    <t>108056:2</t>
+  </si>
+  <si>
+    <t>桦树地板</t>
+  </si>
+  <si>
+    <t>108057:2</t>
+  </si>
+  <si>
+    <t>胡桃树地板</t>
+  </si>
+  <si>
     <t>1000002:10</t>
   </si>
   <si>
@@ -95,84 +182,6 @@
     <t>树叶-女</t>
   </si>
   <si>
-    <t>900001:2&amp;1000001:2&amp;1000002:2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>木锄</t>
-  </si>
-  <si>
-    <t>木镐</t>
-  </si>
-  <si>
-    <t>木斧</t>
-  </si>
-  <si>
-    <t>木铲</t>
-  </si>
-  <si>
-    <t>木剑</t>
-  </si>
-  <si>
-    <t>木刀</t>
-  </si>
-  <si>
-    <t>木弓</t>
-  </si>
-  <si>
-    <t>1000001:4</t>
-  </si>
-  <si>
-    <t>101001|101002|101003|101004|101005|101006|101007</t>
-  </si>
-  <si>
-    <t>木材</t>
-  </si>
-  <si>
-    <t>108051:2</t>
-  </si>
-  <si>
-    <t>橡树地板</t>
-  </si>
-  <si>
-    <t>108052:2</t>
-  </si>
-  <si>
-    <t>银树地板</t>
-  </si>
-  <si>
-    <t>108053:2</t>
-  </si>
-  <si>
-    <t>世界树地板</t>
-  </si>
-  <si>
-    <t>108054:2</t>
-  </si>
-  <si>
-    <t>樱花地板</t>
-  </si>
-  <si>
-    <t>108055:2</t>
-  </si>
-  <si>
-    <t>棕榈地板</t>
-  </si>
-  <si>
-    <t>108056:2</t>
-  </si>
-  <si>
-    <t>桦树地板</t>
-  </si>
-  <si>
-    <t>108057:2</t>
-  </si>
-  <si>
-    <t>胡桃树地板</t>
-  </si>
-  <si>
     <t>910101|910102|910103|910104|910105|910106|910107&amp;910101|910102|910103|910104|910105|910106|910107&amp;910101|910102|910103|910104|910105|910106|910107</t>
   </si>
   <si>
@@ -189,6 +198,12 @@
   </si>
   <si>
     <t>奥术石砖</t>
+  </si>
+  <si>
+    <t>910109&amp;900001:4&amp;1000001:4&amp;900201&amp;310101</t>
+  </si>
+  <si>
+    <t>研究台</t>
   </si>
 </sst>
 </file>
@@ -804,15 +819,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1162,541 +1180,586 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="142" customWidth="1"/>
-    <col min="5" max="5" width="41.875" customWidth="1"/>
-    <col min="6" max="6" width="33.5" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="3" width="32.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="142" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" ht="131" customHeight="1" spans="1:8">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" ht="42" customHeight="1" spans="1:6">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
         <v>900001</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>1000001</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="24" customHeight="1" spans="1:6">
-      <c r="A5">
+    <row r="5" ht="42" customHeight="1" spans="1:6">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="1:6">
+      <c r="A6" s="1">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="1:6">
+      <c r="A7" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2100001</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="1:6">
+      <c r="A8" s="1">
+        <v>10002</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2200001</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>10003</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2300001</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2400001</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3100001</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3200001</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>10007</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3300001</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
         <v>106101</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" ht="24" customHeight="1" spans="1:6">
-      <c r="A6">
+      <c r="F14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>30001</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1">
+        <v>101001</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>30002</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1">
+        <v>101002</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>30003</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1">
+        <v>101003</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>30004</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1">
+        <v>101004</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>30005</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="1">
+        <v>101005</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>30006</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="1">
+        <v>101006</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>30007</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1">
+        <v>101007</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>80001</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1200001</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" ht="21" customHeight="1" spans="1:6">
+      <c r="A23" s="1">
+        <v>80002</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1200002</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>90001</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>910109</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>1100001</v>
+      </c>
+      <c r="B25" s="1">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
+        <v>108301</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="1">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1200001</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="1:6">
-      <c r="A7">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1200002</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>10001</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>2100001</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>10002</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>2200001</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>10003</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>2300001</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>10004</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>2400001</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>10005</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>3100001</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>10006</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>3200001</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>10007</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>3300001</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>20001</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>30001</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16">
-        <v>101001</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>30002</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17">
-        <v>101002</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>30003</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18">
-        <v>101003</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>30004</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19">
-        <v>101004</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>30005</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20">
-        <v>101005</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>30006</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21">
-        <v>101006</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" ht="21" customHeight="1" spans="1:6">
-      <c r="A22">
-        <v>30007</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="F25" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>1100002</v>
+      </c>
+      <c r="B26" s="1">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>108302</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="1">
+        <v>11</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>1110001</v>
+      </c>
+      <c r="B27" s="1">
         <v>50</v>
       </c>
-      <c r="D22">
-        <v>101007</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>90001</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>910109</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>1100001</v>
-      </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24">
-        <v>108301</v>
-      </c>
-      <c r="D24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24">
+      <c r="C27" s="1">
+        <v>106162</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="1">
         <v>11</v>
       </c>
-      <c r="F24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>1100002</v>
-      </c>
-      <c r="B25">
-        <v>10</v>
-      </c>
-      <c r="C25">
-        <v>108302</v>
-      </c>
-      <c r="D25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25">
-        <v>11</v>
-      </c>
-      <c r="F25" t="s">
-        <v>57</v>
+      <c r="F27" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A4:H27">
+    <sortCondition ref="A4"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20625" windowHeight="17070"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="ItemsSynthesis" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
   <si>
     <t>id</t>
   </si>
@@ -28,6 +28,9 @@
     <t>materials</t>
   </si>
   <si>
+    <t>elemental</t>
+  </si>
+  <si>
     <t>type_synthesis</t>
   </si>
   <si>
@@ -58,11 +61,13 @@
     <t>合成结果:分隔道具数量</t>
   </si>
   <si>
-    <t xml:space="preserve">资源（&amp;分隔不同材料） （:分隔道具数量） （|分隔可替换的材料）
-</t>
-  </si>
-  <si>
-    <t>合成类型(用|分割) 0自身  1基础制造台 11神秘制造台</t>
+    <t>资源（&amp;分隔不同材料） （:分隔道具数量） （|分隔可替换的材料）</t>
+  </si>
+  <si>
+    <t>消耗元素（&amp; 分割不同元素 ：分割道具数量）</t>
+  </si>
+  <si>
+    <t>合成类型(用|分割) 0自身  1基础制造台 11神秘制造台 21坩埚</t>
   </si>
   <si>
     <t>备注</t>
@@ -204,6 +209,12 @@
   </si>
   <si>
     <t>研究台</t>
+  </si>
+  <si>
+    <t>Earth:2</t>
+  </si>
+  <si>
+    <t>石头</t>
   </si>
 </sst>
 </file>
@@ -1180,25 +1191,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="32.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="142" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="68.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="59.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1223,60 +1235,69 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" ht="131" customHeight="1" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="131" customHeight="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" ht="42" customHeight="1" spans="1:6">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="42" customHeight="1" spans="1:7">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1289,14 +1310,15 @@
       <c r="D4" s="2">
         <v>1000001</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" ht="42" customHeight="1" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" ht="42" customHeight="1" spans="1:7">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1304,19 +1326,20 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" ht="24" customHeight="1" spans="1:6">
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="1:7">
       <c r="A6" s="1">
         <v>11</v>
       </c>
@@ -1324,19 +1347,20 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="1:6">
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="1:7">
       <c r="A7" s="1">
         <v>10001</v>
       </c>
@@ -1347,16 +1371,16 @@
         <v>2100001</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="1:6">
+      <c r="F7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="1:7">
       <c r="A8" s="1">
         <v>10002</v>
       </c>
@@ -1367,16 +1391,16 @@
         <v>2200001</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>10003</v>
       </c>
@@ -1387,16 +1411,16 @@
         <v>2300001</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>10004</v>
       </c>
@@ -1407,16 +1431,16 @@
         <v>2400001</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>10005</v>
       </c>
@@ -1427,16 +1451,16 @@
         <v>3100001</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10006</v>
       </c>
@@ -1447,16 +1471,16 @@
         <v>3200001</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>10007</v>
       </c>
@@ -1467,16 +1491,16 @@
         <v>3300001</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>20001</v>
       </c>
@@ -1487,16 +1511,17 @@
         <v>106101</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>30001</v>
       </c>
@@ -1504,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1">
         <v>101001</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>30002</v>
       </c>
@@ -1524,19 +1549,19 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1">
         <v>101002</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>30003</v>
       </c>
@@ -1544,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1">
         <v>101003</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>30004</v>
       </c>
@@ -1564,19 +1589,19 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1">
         <v>101004</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>30005</v>
       </c>
@@ -1584,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D19" s="1">
         <v>101005</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>30006</v>
       </c>
@@ -1604,19 +1629,19 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1">
         <v>101006</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="F20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>30007</v>
       </c>
@@ -1624,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1">
         <v>101007</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>80001</v>
       </c>
@@ -1647,16 +1672,17 @@
         <v>1200001</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" ht="21" customHeight="1" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" ht="21" customHeight="1" spans="1:7">
       <c r="A23" s="1">
         <v>80002</v>
       </c>
@@ -1667,16 +1693,17 @@
         <v>1200002</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>90001</v>
       </c>
@@ -1687,16 +1714,16 @@
         <v>910109</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="1">
+        <v>57</v>
+      </c>
+      <c r="F24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>1100001</v>
       </c>
@@ -1707,16 +1734,16 @@
         <v>108301</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="1">
+        <v>59</v>
+      </c>
+      <c r="F25" s="1">
         <v>11</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>1100002</v>
       </c>
@@ -1727,16 +1754,16 @@
         <v>108302</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="1">
+        <v>61</v>
+      </c>
+      <c r="F26" s="1">
         <v>11</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>1110001</v>
       </c>
@@ -1747,17 +1774,40 @@
         <v>106162</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="1">
+        <v>63</v>
+      </c>
+      <c r="F27" s="1">
         <v>11</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>62</v>
+      <c r="G27" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>2100001</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>100005</v>
+      </c>
+      <c r="D28" s="1">
+        <v>100003</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="1">
+        <v>21</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:H27">
+  <sortState ref="A4:I27">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -67,7 +67,7 @@
     <t>消耗元素（&amp; 分割不同元素 ：分割道具数量）</t>
   </si>
   <si>
-    <t>合成类型(用|分割) 0自身  1基础制造台 11神秘制造台 21坩埚</t>
+    <t>合成类型(用|分割) 0自带 1自身 2基础制造台 11神秘制造台 21坩埚</t>
   </si>
   <si>
     <t>备注</t>
@@ -79,7 +79,7 @@
     <t>名字-英文</t>
   </si>
   <si>
-    <t>0|1</t>
+    <t>0|1|2</t>
   </si>
   <si>
     <t>木棍</t>
@@ -106,7 +106,7 @@
     <t>900001:2&amp;1000001:2&amp;1000002:2</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2</t>
   </si>
   <si>
     <t>木锄</t>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>108051:2</t>
+  </si>
+  <si>
+    <t>1|2</t>
   </si>
   <si>
     <t>橡树地板</t>
@@ -1193,15 +1196,15 @@
   <sheetPr/>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="32.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="68.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="78.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="59.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="59.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="33.5" style="1" customWidth="1"/>
@@ -1332,8 +1335,8 @@
         <v>24</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="1">
-        <v>1</v>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>25</v>
@@ -1354,7 +1357,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>28</v>
@@ -1534,11 +1537,11 @@
       <c r="D15" s="1">
         <v>101001</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>30</v>
+      <c r="F15" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1549,16 +1552,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1">
         <v>101002</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>30</v>
+      <c r="F16" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1569,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1">
         <v>101003</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>30</v>
+      <c r="F17" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1589,16 +1592,16 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1">
         <v>101004</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>30</v>
+      <c r="F18" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1609,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1">
         <v>101005</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>30</v>
+      <c r="F19" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1629,16 +1632,16 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1">
         <v>101006</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>30</v>
+      <c r="F20" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1649,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1">
         <v>101007</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>30</v>
+      <c r="F21" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1672,14 +1675,14 @@
         <v>1200001</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" ht="21" customHeight="1" spans="1:7">
@@ -1693,14 +1696,14 @@
         <v>1200002</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1714,13 +1717,13 @@
         <v>910109</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1734,13 +1737,13 @@
         <v>108301</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25" s="1">
         <v>11</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1754,13 +1757,13 @@
         <v>108302</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F26" s="1">
         <v>11</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1774,13 +1777,13 @@
         <v>106162</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F27" s="1">
         <v>11</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1797,13 +1800,13 @@
         <v>100003</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F28" s="1">
         <v>21</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>id</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>简易制作台</t>
+  </si>
+  <si>
+    <t>1000001:10&amp;1000002:2</t>
+  </si>
+  <si>
+    <t>箱子</t>
   </si>
   <si>
     <t>108051:2</t>
@@ -1194,10 +1200,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1526,39 +1532,40 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>30001</v>
+        <v>20101</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2">
+        <v>106201</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="1">
-        <v>101001</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1">
+        <v>101001</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D16" s="1">
-        <v>101002</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>44</v>
@@ -1566,7 +1573,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -1575,10 +1582,10 @@
         <v>45</v>
       </c>
       <c r="D17" s="1">
-        <v>101003</v>
+        <v>101002</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>46</v>
@@ -1586,7 +1593,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>30004</v>
+        <v>30003</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -1595,10 +1602,10 @@
         <v>47</v>
       </c>
       <c r="D18" s="1">
-        <v>101004</v>
+        <v>101003</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>48</v>
@@ -1606,7 +1613,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>30005</v>
+        <v>30004</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -1615,10 +1622,10 @@
         <v>49</v>
       </c>
       <c r="D19" s="1">
-        <v>101005</v>
+        <v>101004</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>50</v>
@@ -1626,7 +1633,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>30006</v>
+        <v>30005</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -1635,10 +1642,10 @@
         <v>51</v>
       </c>
       <c r="D20" s="1">
-        <v>101006</v>
+        <v>101005</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>52</v>
@@ -1646,7 +1653,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>30007</v>
+        <v>30006</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -1655,10 +1662,10 @@
         <v>53</v>
       </c>
       <c r="D21" s="1">
-        <v>101007</v>
+        <v>101006</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>54</v>
@@ -1666,61 +1673,61 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>80001</v>
+        <v>30007</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
       </c>
-      <c r="C22" s="2">
-        <v>1200001</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="D22" s="1">
+        <v>101007</v>
+      </c>
       <c r="F22" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" ht="21" customHeight="1" spans="1:7">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>80002</v>
+        <v>80001</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
       </c>
       <c r="C23" s="2">
-        <v>1200002</v>
+        <v>1200001</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" ht="21" customHeight="1" spans="1:7">
+      <c r="A24" s="1">
+        <v>80002</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1200002</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1">
-        <v>90001</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>910109</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2</v>
+      <c r="E24" s="2"/>
+      <c r="F24" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>59</v>
@@ -1728,19 +1735,19 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>1100001</v>
-      </c>
-      <c r="B25" s="1">
-        <v>10</v>
+        <v>90001</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>108301</v>
+        <v>910109</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F25" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>61</v>
@@ -1748,13 +1755,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>1100002</v>
+        <v>1100001</v>
       </c>
       <c r="B26" s="1">
         <v>10</v>
       </c>
       <c r="C26" s="1">
-        <v>108302</v>
+        <v>108301</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>62</v>
@@ -1768,13 +1775,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>1110001</v>
+        <v>1100002</v>
       </c>
       <c r="B27" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C27" s="1">
-        <v>106162</v>
+        <v>108302</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>64</v>
@@ -1788,25 +1795,45 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>2100001</v>
+        <v>1110001</v>
       </c>
       <c r="B28" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C28" s="1">
-        <v>100005</v>
-      </c>
-      <c r="D28" s="1">
-        <v>100003</v>
-      </c>
-      <c r="E28" s="1" t="s">
+        <v>106162</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F28" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>2100001</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>100005</v>
+      </c>
+      <c r="D29" s="1">
+        <v>100003</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="1">
+        <v>21</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_items_synthesis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -103,6 +103,18 @@
     <t>玻璃瓶</t>
   </si>
   <si>
+    <t>1000001:6&amp;1000002:2</t>
+  </si>
+  <si>
+    <t>木桶</t>
+  </si>
+  <si>
+    <t>1090001:1&amp;900001:1&amp;1000001:1&amp;1000002:1</t>
+  </si>
+  <si>
+    <t>木洒水壶</t>
+  </si>
+  <si>
     <t>900001:2&amp;1000001:2&amp;1000002:2</t>
   </si>
   <si>
@@ -140,6 +152,21 @@
   </si>
   <si>
     <t>箱子</t>
+  </si>
+  <si>
+    <t>106001:4</t>
+  </si>
+  <si>
+    <t>900001:8&amp;&amp;1000002:4</t>
+  </si>
+  <si>
+    <t>木楼梯</t>
+  </si>
+  <si>
+    <t>900001:2&amp;1000001:6</t>
+  </si>
+  <si>
+    <t>门</t>
   </si>
   <si>
     <t>108051:2</t>
@@ -1200,10 +1227,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1371,181 +1398,181 @@
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:7">
       <c r="A7" s="1">
-        <v>10001</v>
+        <v>9001</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="1">
-        <v>2100001</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="2">
+        <v>1090001</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" ht="24" customHeight="1" spans="1:7">
       <c r="A8" s="1">
-        <v>10002</v>
+        <v>10000</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
       </c>
-      <c r="C8" s="1">
-        <v>2200001</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>30</v>
+      <c r="C8" s="2">
+        <v>2900001</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1">
+        <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" ht="24" customHeight="1" spans="1:7">
       <c r="A9" s="1">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>2300001</v>
+        <v>2100001</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="1:7">
+      <c r="A10" s="1">
+        <v>10002</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2200001</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>10004</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2400001</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>3100001</v>
+        <v>2300001</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>10006</v>
+        <v>10004</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>3200001</v>
+        <v>2400001</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>10007</v>
+        <v>10005</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>3300001</v>
+        <v>3100001</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>20001</v>
+        <v>10006</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
       </c>
-      <c r="C14" s="2">
-        <v>106101</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="1" t="s">
-        <v>21</v>
+      <c r="C14" s="1">
+        <v>3200001</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>20101</v>
+        <v>10007</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
       </c>
-      <c r="C15" s="2">
-        <v>106201</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="1">
-        <v>2</v>
+      <c r="C15" s="1">
+        <v>3300001</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>41</v>
@@ -1553,59 +1580,62 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>30001</v>
+        <v>20001</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2">
+        <v>106101</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="1">
-        <v>101001</v>
-      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>30002</v>
+        <v>20101</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2">
+        <v>106201</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D17" s="1">
-        <v>101002</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>30003</v>
+        <v>20201</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="1">
-        <v>101003</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>43</v>
+      <c r="E18" s="2"/>
+      <c r="F18" s="1">
+        <v>2</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>48</v>
@@ -1613,19 +1643,20 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>30004</v>
+        <v>20301</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2">
+        <v>106010</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="1">
-        <v>101004</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>43</v>
+      <c r="E19" s="2"/>
+      <c r="F19" s="1">
+        <v>2</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>50</v>
@@ -1633,7 +1664,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>30005</v>
+        <v>30001</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -1642,198 +1673,278 @@
         <v>51</v>
       </c>
       <c r="D20" s="1">
-        <v>101005</v>
+        <v>101001</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>30006</v>
+        <v>30002</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1">
-        <v>101006</v>
+        <v>101002</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>30007</v>
+        <v>30003</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1">
-        <v>101007</v>
+        <v>101003</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>80001</v>
+        <v>30004</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
       </c>
-      <c r="C23" s="2">
-        <v>1200001</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="2"/>
+      <c r="C23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="1">
+        <v>101004</v>
+      </c>
       <c r="F23" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" ht="21" customHeight="1" spans="1:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>80002</v>
+        <v>30005</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
       </c>
-      <c r="C24" s="2">
-        <v>1200002</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="2"/>
+      <c r="C24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="1">
+        <v>101005</v>
+      </c>
       <c r="F24" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>90001</v>
+        <v>30006</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
       </c>
-      <c r="C25" s="1">
-        <v>910109</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2</v>
+      <c r="C25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="1">
+        <v>101006</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>1100001</v>
-      </c>
-      <c r="B26" s="1">
-        <v>10</v>
-      </c>
-      <c r="C26" s="1">
-        <v>108301</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="1">
-        <v>11</v>
+        <v>30007</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="1">
+        <v>101007</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>1100002</v>
-      </c>
-      <c r="B27" s="1">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1">
-        <v>108302</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="1">
-        <v>11</v>
+        <v>80001</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1200001</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" ht="21" customHeight="1" spans="1:7">
       <c r="A28" s="1">
-        <v>1110001</v>
-      </c>
-      <c r="B28" s="1">
-        <v>50</v>
-      </c>
-      <c r="C28" s="1">
-        <v>106162</v>
-      </c>
-      <c r="D28" s="1" t="s">
+        <v>80002</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1200002</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="1">
-        <v>11</v>
+      <c r="E28" s="2"/>
+      <c r="F28" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
+        <v>90001</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>910109</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>1100001</v>
+      </c>
+      <c r="B30" s="1">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
+        <v>108301</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="1">
+        <v>11</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>1100002</v>
+      </c>
+      <c r="B31" s="1">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
+        <v>108302</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="1">
+        <v>11</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>1110001</v>
+      </c>
+      <c r="B32" s="1">
+        <v>50</v>
+      </c>
+      <c r="C32" s="1">
+        <v>106162</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="1">
+        <v>11</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>2100001</v>
       </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
         <v>100005</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D33" s="1">
         <v>100003</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="1">
+      <c r="E33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="1">
         <v>21</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>69</v>
+      <c r="G33" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
